--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H2">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I2">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J2">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N2">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O2">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P2">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q2">
-        <v>445.3629618108048</v>
+        <v>624.061278672125</v>
       </c>
       <c r="R2">
-        <v>4008.266656297244</v>
+        <v>5616.551508049125</v>
       </c>
       <c r="S2">
-        <v>0.5295895591308448</v>
+        <v>0.6092200484570759</v>
       </c>
       <c r="T2">
-        <v>0.5295895591308447</v>
+        <v>0.6092200484570758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H3">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I3">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J3">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.468992</v>
       </c>
       <c r="O3">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P3">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q3">
-        <v>50.89422385115022</v>
+        <v>65.10849612736</v>
       </c>
       <c r="R3">
-        <v>458.048014660352</v>
+        <v>585.97646514624</v>
       </c>
       <c r="S3">
-        <v>0.06051928849684435</v>
+        <v>0.06356010622879452</v>
       </c>
       <c r="T3">
-        <v>0.06051928849684433</v>
+        <v>0.0635601062287945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H4">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I4">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J4">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N4">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O4">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P4">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q4">
-        <v>17.44111568933177</v>
+        <v>50.83372502586</v>
       </c>
       <c r="R4">
-        <v>156.970041203986</v>
+        <v>457.50352523274</v>
       </c>
       <c r="S4">
-        <v>0.02073956202174508</v>
+        <v>0.04962481327058722</v>
       </c>
       <c r="T4">
-        <v>0.02073956202174508</v>
+        <v>0.04962481327058721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H5">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I5">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J5">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N5">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O5">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P5">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q5">
-        <v>213.6651044441862</v>
+        <v>159.384155080045</v>
       </c>
       <c r="R5">
-        <v>1922.985939997676</v>
+        <v>1434.457395720405</v>
       </c>
       <c r="S5">
-        <v>0.254073235017491</v>
+        <v>0.1555937309357891</v>
       </c>
       <c r="T5">
-        <v>0.2540732350174909</v>
+        <v>0.155593730935789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H6">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I6">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J6">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N6">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O6">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P6">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q6">
-        <v>14.75966573311178</v>
+        <v>24.424210852895</v>
       </c>
       <c r="R6">
-        <v>132.836991598006</v>
+        <v>219.817897676055</v>
       </c>
       <c r="S6">
-        <v>0.01755099893519629</v>
+        <v>0.02384336190668252</v>
       </c>
       <c r="T6">
-        <v>0.01755099893519629</v>
+        <v>0.02384336190668252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>7.899606</v>
       </c>
       <c r="I7">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J7">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N7">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O7">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P7">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q7">
-        <v>49.68727009131601</v>
+        <v>54.42383083995</v>
       </c>
       <c r="R7">
-        <v>447.1854308218441</v>
+        <v>489.81447755955</v>
       </c>
       <c r="S7">
-        <v>0.05908407685067821</v>
+        <v>0.05312954031066217</v>
       </c>
       <c r="T7">
-        <v>0.05908407685067819</v>
+        <v>0.05312954031066215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>7.899606</v>
       </c>
       <c r="I8">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J8">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.468992</v>
       </c>
       <c r="O8">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P8">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q8">
         <v>5.678054224128001</v>
@@ -948,10 +948,10 @@
         <v>51.10248801715201</v>
       </c>
       <c r="S8">
-        <v>0.006751882152594455</v>
+        <v>0.005543020513827751</v>
       </c>
       <c r="T8">
-        <v>0.006751882152594453</v>
+        <v>0.005543020513827748</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>7.899606</v>
       </c>
       <c r="I9">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J9">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N9">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O9">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P9">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q9">
-        <v>1.945831827654</v>
+        <v>4.433164091928</v>
       </c>
       <c r="R9">
-        <v>17.512486448886</v>
+        <v>39.898476827352</v>
       </c>
       <c r="S9">
-        <v>0.002313825594207838</v>
+        <v>0.004327735969533693</v>
       </c>
       <c r="T9">
-        <v>0.002313825594207836</v>
+        <v>0.004327735969533691</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>7.899606</v>
       </c>
       <c r="I10">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J10">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N10">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O10">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P10">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q10">
-        <v>23.837715894564</v>
+        <v>13.899750859566</v>
       </c>
       <c r="R10">
-        <v>214.539443051076</v>
+        <v>125.097757736094</v>
       </c>
       <c r="S10">
-        <v>0.028345880851788</v>
+        <v>0.01356919133041594</v>
       </c>
       <c r="T10">
-        <v>0.02834588085178798</v>
+        <v>0.01356919133041593</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>7.899606</v>
       </c>
       <c r="I11">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J11">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N11">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O11">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P11">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q11">
-        <v>1.646673748434</v>
+        <v>2.130013774746</v>
       </c>
       <c r="R11">
-        <v>14.820063735906</v>
+        <v>19.170123972714</v>
       </c>
       <c r="S11">
-        <v>0.001958091038643576</v>
+        <v>0.002079358453109166</v>
       </c>
       <c r="T11">
-        <v>0.001958091038643575</v>
+        <v>0.002079358453109164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H12">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I12">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J12">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N12">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O12">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P12">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q12">
-        <v>9.625992386146889</v>
+        <v>11.32530978222778</v>
       </c>
       <c r="R12">
-        <v>86.633931475322</v>
+        <v>101.92778804005</v>
       </c>
       <c r="S12">
-        <v>0.01144645042607296</v>
+        <v>0.01105597480587348</v>
       </c>
       <c r="T12">
-        <v>0.01144645042607295</v>
+        <v>0.01105597480587348</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H13">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I13">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J13">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.468992</v>
       </c>
       <c r="O13">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P13">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q13">
-        <v>1.100018307086222</v>
+        <v>1.181572889230222</v>
       </c>
       <c r="R13">
-        <v>9.900164763775999</v>
+        <v>10.634156003072</v>
       </c>
       <c r="S13">
-        <v>0.001308052667687099</v>
+        <v>0.00115347309220029</v>
       </c>
       <c r="T13">
-        <v>0.001308052667687098</v>
+        <v>0.00115347309220029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H14">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I14">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J14">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N14">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O14">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P14">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q14">
-        <v>0.3769690370047778</v>
+        <v>0.9225178728079999</v>
       </c>
       <c r="R14">
-        <v>3.392721333043</v>
+        <v>8.302660855272</v>
       </c>
       <c r="S14">
-        <v>0.0004482610437599618</v>
+        <v>0.0009005788411844177</v>
       </c>
       <c r="T14">
-        <v>0.0004482610437599616</v>
+        <v>0.0009005788411844174</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H15">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I15">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J15">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N15">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O15">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P15">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q15">
-        <v>4.618117905904223</v>
+        <v>2.892464237648222</v>
       </c>
       <c r="R15">
-        <v>41.56306115313799</v>
+        <v>26.032178138834</v>
       </c>
       <c r="S15">
-        <v>0.005491491739362558</v>
+        <v>0.002823676557484705</v>
       </c>
       <c r="T15">
-        <v>0.005491491739362556</v>
+        <v>0.002823676557484704</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5479553333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.643866</v>
+      </c>
+      <c r="I16">
+        <v>0.01636640673320273</v>
+      </c>
+      <c r="J16">
+        <v>0.01636640673320272</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8089063333333334</v>
+      </c>
+      <c r="N16">
+        <v>2.426719</v>
+      </c>
+      <c r="O16">
+        <v>0.02643851173403914</v>
+      </c>
+      <c r="P16">
+        <v>0.02643851173403913</v>
+      </c>
+      <c r="Q16">
+        <v>0.4432445395171112</v>
+      </c>
+      <c r="R16">
+        <v>3.989200855654</v>
+      </c>
+      <c r="S16">
+        <v>0.0004327034364598374</v>
+      </c>
+      <c r="T16">
+        <v>0.0004327034364598373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.315656</v>
+      </c>
+      <c r="I17">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J17">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>20.66830833333333</v>
+      </c>
+      <c r="N17">
+        <v>62.004925</v>
+      </c>
+      <c r="O17">
+        <v>0.6755285375771634</v>
+      </c>
+      <c r="P17">
+        <v>0.6755285375771634</v>
+      </c>
+      <c r="Q17">
+        <v>2.174691845088889</v>
+      </c>
+      <c r="R17">
+        <v>19.5722266058</v>
+      </c>
+      <c r="S17">
+        <v>0.00212297400355187</v>
+      </c>
+      <c r="T17">
+        <v>0.00212297400355187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.315656</v>
+      </c>
+      <c r="I18">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J18">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.156330666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.468992</v>
+      </c>
+      <c r="O18">
+        <v>0.07047809033489469</v>
+      </c>
+      <c r="P18">
+        <v>0.07047809033489467</v>
+      </c>
+      <c r="Q18">
+        <v>0.2268862376391111</v>
+      </c>
+      <c r="R18">
+        <v>2.041976138752</v>
+      </c>
+      <c r="S18">
+        <v>0.0002214905000721318</v>
+      </c>
+      <c r="T18">
+        <v>0.0002214905000721316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.5101343333333334</v>
-      </c>
-      <c r="H16">
-        <v>1.530403</v>
-      </c>
-      <c r="I16">
-        <v>0.01907359990996641</v>
-      </c>
-      <c r="J16">
-        <v>0.0190735999099664</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6253503333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.876051</v>
-      </c>
-      <c r="O16">
-        <v>0.0198884340069237</v>
-      </c>
-      <c r="P16">
-        <v>0.0198884340069237</v>
-      </c>
-      <c r="Q16">
-        <v>0.3190126753947778</v>
-      </c>
-      <c r="R16">
-        <v>2.871114078553</v>
-      </c>
-      <c r="S16">
-        <v>0.0003793440330838328</v>
-      </c>
-      <c r="T16">
-        <v>0.0003793440330838325</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.315656</v>
+      </c>
+      <c r="I19">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J19">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.683564</v>
+      </c>
+      <c r="N19">
+        <v>5.050692</v>
+      </c>
+      <c r="O19">
+        <v>0.05502605769642779</v>
+      </c>
+      <c r="P19">
+        <v>0.05502605769642779</v>
+      </c>
+      <c r="Q19">
+        <v>0.177142359328</v>
+      </c>
+      <c r="R19">
+        <v>1.594281233952</v>
+      </c>
+      <c r="S19">
+        <v>0.0001729296151224665</v>
+      </c>
+      <c r="T19">
+        <v>0.0001729296151224665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.315656</v>
+      </c>
+      <c r="I20">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J20">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.278649666666666</v>
+      </c>
+      <c r="N20">
+        <v>15.835949</v>
+      </c>
+      <c r="O20">
+        <v>0.1725288026574751</v>
+      </c>
+      <c r="P20">
+        <v>0.1725288026574751</v>
+      </c>
+      <c r="Q20">
+        <v>0.5554124797271111</v>
+      </c>
+      <c r="R20">
+        <v>4.998712317543999</v>
+      </c>
+      <c r="S20">
+        <v>0.0005422038337853524</v>
+      </c>
+      <c r="T20">
+        <v>0.0005422038337853522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.315656</v>
+      </c>
+      <c r="I21">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J21">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.8089063333333334</v>
+      </c>
+      <c r="N21">
+        <v>2.426719</v>
+      </c>
+      <c r="O21">
+        <v>0.02643851173403914</v>
+      </c>
+      <c r="P21">
+        <v>0.02643851173403913</v>
+      </c>
+      <c r="Q21">
+        <v>0.08511204585155556</v>
+      </c>
+      <c r="R21">
+        <v>0.7660084126640001</v>
+      </c>
+      <c r="S21">
+        <v>8.308793778760949E-05</v>
+      </c>
+      <c r="T21">
+        <v>8.308793778760945E-05</v>
       </c>
     </row>
   </sheetData>
